--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dhcp" sheetId="1" r:id="rId1"/>
     <sheet name="vlan" sheetId="3" r:id="rId2"/>
+    <sheet name="intf_access" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -72,9 +73,6 @@
     <t>255.255.255.0</t>
   </si>
   <si>
-    <t>Printer</t>
-  </si>
-  <si>
     <t>172.24.161.13</t>
   </si>
   <si>
@@ -154,6 +152,75 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>FinancePrinter3</t>
+  </si>
+  <si>
+    <t>AdminProjector1</t>
+  </si>
+  <si>
+    <t>172.24.161.7</t>
+  </si>
+  <si>
+    <t>0144.5566.DDEE.FF</t>
+  </si>
+  <si>
+    <t>172.20.160.1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Connection_to_Core_1</t>
+  </si>
+  <si>
+    <t>Connection_to_Core_2</t>
+  </si>
+  <si>
+    <t>Connection_to_Data</t>
+  </si>
+  <si>
+    <t>Connection_to_Voice</t>
+  </si>
+  <si>
+    <t>Connection_to_CCTV</t>
+  </si>
+  <si>
+    <t>Connection_to_Management</t>
+  </si>
+  <si>
+    <t>access_vlan</t>
+  </si>
+  <si>
+    <t>port_start</t>
+  </si>
+  <si>
+    <t>port_end</t>
+  </si>
+  <si>
+    <t>FastEthernet0/1</t>
+  </si>
+  <si>
+    <t>FastEthernet0/2</t>
+  </si>
+  <si>
+    <t>Connection_to_Users_&amp;_Phones</t>
+  </si>
+  <si>
+    <t>FastEthernet0/3</t>
+  </si>
+  <si>
+    <t>FastEthernet0/5</t>
+  </si>
+  <si>
+    <t>FastEthernet0/7</t>
+  </si>
+  <si>
+    <t>Connection_to_AP_MGT</t>
   </si>
 </sst>
 </file>
@@ -471,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
@@ -509,13 +576,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -538,13 +605,13 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -567,27 +634,27 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -596,13 +663,42 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -616,81 +712,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
       </c>
       <c r="B2">
         <v>764</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>864</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -698,16 +804,19 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>503</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -715,73 +824,189 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>600</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>765</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>866</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
+      <c r="B10">
+        <v>900</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"arial"&amp;10&amp;K737373ADNOC Classification: Public&amp;1#</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
